--- a/Resources/TestData.xlsx
+++ b/Resources/TestData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahun\eclipse-workspace\AppiumFramework\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\AppiumFramework\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2804D481-3D26-4A00-AF87-88DD0B4A5AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D6FAA5-01BB-4AD1-9D32-BB5A4B194DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F31D661-71E8-4332-B005-09D93205543B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4F31D661-71E8-4332-B005-09D93205543B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,22 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>KeyWord</t>
-  </si>
-  <si>
-    <t>Ln1</t>
-  </si>
-  <si>
-    <t>Ln2</t>
-  </si>
-  <si>
-    <t>Ln3</t>
-  </si>
-  <si>
-    <t>Ln4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Seo Vtechys</t>
   </si>
@@ -55,19 +41,7 @@
     <t>https://vtechys.com/it-sales-and-cloud-services/</t>
   </si>
   <si>
-    <t>DitigalMatketingService</t>
-  </si>
-  <si>
     <t>Scroll Time</t>
-  </si>
-  <si>
-    <t>Scroll time</t>
-  </si>
-  <si>
-    <t>30sec</t>
-  </si>
-  <si>
-    <t>40sec</t>
   </si>
   <si>
     <t>Digital Marketing Service</t>
@@ -156,18 +130,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,9 +151,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,71 +488,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAFBDCD-4518-4F75-998E-6B6D529F9607}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{C9ABE4CB-710F-417F-8759-8AD699C3BF68}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{B9BDD07F-3DF6-4839-9A1E-E3D58F75F556}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{1DDA4226-ECF7-4961-991D-1F7BD57C0C75}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{3785C116-C8BF-448D-A296-2C5A65192038}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{5D4E0659-764C-4DEA-BE94-0E417D970ED3}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{AE90F1A0-1DBB-4EDF-AFCD-72E414DE4C52}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{3CAE3970-64BD-4950-AF82-9940166F6EA7}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{9A358C0B-C7DB-4C96-8D85-87104575A0CD}"/>
+    <hyperlink ref="F2" r:id="rId7" xr:uid="{862345B7-DEF9-4F7A-9398-5583004BD09A}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{A5A19C06-F620-4F6C-A73F-524BDED6D706}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -595,92 +583,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53304E53-9A13-4534-BC9F-1E357D1D6E12}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{B63C8D6D-7B68-4A94-A7DD-7F085527E51D}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{490CA446-A259-46BB-97EE-78B6B6061F43}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{8EB171FE-FD68-4D2C-91B7-E8FFA3970B4E}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{33D9B728-ECD7-4BEA-9B28-2C76EFB2D331}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{A4E3CFD4-0D9A-4B3C-8ABF-0C4243E3D14D}"/>
-    <hyperlink ref="E3" r:id="rId6" xr:uid="{EB59F44D-ECC6-4179-8885-303F94B4CBF5}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{5A9AAE0D-3DFC-456C-9C18-782C8E98AF0C}"/>
-    <hyperlink ref="D2" r:id="rId8" xr:uid="{2D6B8375-69FF-4BD1-8CE4-70981491943C}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{B63C8D6D-7B68-4A94-A7DD-7F085527E51D}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{490CA446-A259-46BB-97EE-78B6B6061F43}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{8EB171FE-FD68-4D2C-91B7-E8FFA3970B4E}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{33D9B728-ECD7-4BEA-9B28-2C76EFB2D331}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{A4E3CFD4-0D9A-4B3C-8ABF-0C4243E3D14D}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{EB59F44D-ECC6-4179-8885-303F94B4CBF5}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{5A9AAE0D-3DFC-456C-9C18-782C8E98AF0C}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{2D6B8375-69FF-4BD1-8CE4-70981491943C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9A6561-89B5-4CF3-93AD-ACFE5F1B2E72}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{CC3DF18D-AA1E-46C8-9111-9A360A25DF2A}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{93A3EC7E-B926-448D-8CE1-7B83931C9FEC}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{60014C57-D0B2-4D7F-BCA4-82317BF46A5E}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{EB67C9ED-5E85-48A1-A83B-EE481B6567BC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>